--- a/src/main/resources/static/template/Student.xlsx
+++ b/src/main/resources/static/template/Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8266E-BA67-4245-8843-2E03341FE9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11EF8FC-9E23-463E-A60A-6E332BB2148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -87,28 +87,40 @@
     <t>0349850591</t>
   </si>
   <si>
-    <t>,akmwnd,ad</t>
-  </si>
-  <si>
-    <t>dliawhodawd</t>
-  </si>
-  <si>
-    <t>dwdawdad</t>
-  </si>
-  <si>
-    <t>dwadwakljadh</t>
-  </si>
-  <si>
-    <t>SE150000</t>
-  </si>
-  <si>
-    <t>SE1500100</t>
-  </si>
-  <si>
     <t>SE155454</t>
   </si>
   <si>
-    <t>SE123414</t>
+    <t>SE140011</t>
+  </si>
+  <si>
+    <t>SE140000</t>
+  </si>
+  <si>
+    <t>SE143414</t>
+  </si>
+  <si>
+    <t>nguyensyhoan0905@gmail.com</t>
+  </si>
+  <si>
+    <t>0349853523</t>
+  </si>
+  <si>
+    <t>Tòa nhà S3.03 Vinhome Grand Park, Toà S303, Chung Cư Vinhomes Grand Park, Nguyễn Xiển, Tp. Thủ Đức, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>216 Đ. Võ Văn Ngân, Bình Thọ, Thủ Đức, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>120 XL Hà Nội, Thành Phố, Thủ Đức, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>12 Nguyễn Văn Bảo, Phường 4, Gò Vấp, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>339 Đ. Nam Kỳ Khởi Nghĩa, Phường 14, Quận 3, Thành phố Hồ Chí Minh, Việt Nam</t>
+  </si>
+  <si>
+    <t>SE150013</t>
   </si>
 </sst>
 </file>
@@ -438,20 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="67.109375" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -498,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -506,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -521,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -529,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -544,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -552,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -567,7 +579,30 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -576,6 +611,7 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{36198FE8-B66B-4A89-B861-6E98745629EC}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{129386F9-FBD1-4534-9406-A72A7932F418}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{D170297C-E37D-4AE8-88FF-BAB07ED8AA77}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{20CFEBEE-6D0C-47D0-9475-C3CA42A91AD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
